--- a/Assets/StreamingAssets/languages/ja/1.xlsx
+++ b/Assets/StreamingAssets/languages/ja/1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Name(说话人）</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>moveTo(-540,y)</t>
+  </si>
+  <si>
+    <t>End of story</t>
   </si>
 </sst>
 </file>
@@ -793,6 +796,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1045,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="10.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="30.2777777777778" customWidth="1"/>
@@ -1216,6 +1226,11 @@
       <c r="K5">
         <f>IF(F4&lt;&gt;"",F4,K4)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
